--- a/Content/Tractors/Tractor_Infos2.xlsx
+++ b/Content/Tractors/Tractor_Infos2.xlsx
@@ -14,343 +14,729 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="250">
+  <si>
+    <t>Preet Tractors</t>
+  </si>
+  <si>
+    <t>ACE Tractors</t>
+  </si>
+  <si>
+    <t>Indo Farm Tractors</t>
+  </si>
+  <si>
+    <t>Massey Ferguson Tractors</t>
+  </si>
+  <si>
+    <t>Same Deutz Fahr Tractors</t>
+  </si>
+  <si>
+    <t>Sonalika Tractors</t>
+  </si>
   <si>
     <t>Autonxt Tractors</t>
   </si>
   <si>
-    <t>Swaraj Tractors</t>
-  </si>
-  <si>
-    <t>John Deere Tractors</t>
-  </si>
-  <si>
-    <t>Sonalika Tractors</t>
-  </si>
-  <si>
-    <t>X45H2</t>
-  </si>
-  <si>
-    <t>855 FE 4WD</t>
-  </si>
-  <si>
-    <t>742 XT</t>
-  </si>
-  <si>
-    <t>5105</t>
-  </si>
-  <si>
-    <t>Tiger Electric</t>
+    <t>8049</t>
+  </si>
+  <si>
+    <t>DI 6500</t>
+  </si>
+  <si>
+    <t>4175 DI 2 WD</t>
+  </si>
+  <si>
+    <t>1134 DI</t>
+  </si>
+  <si>
+    <t>4549 CR - 4WD</t>
+  </si>
+  <si>
+    <t>Agrolux 55</t>
+  </si>
+  <si>
+    <t>Worldtrac 75 RX 4WD</t>
+  </si>
+  <si>
+    <t>9049 AC - 4WD</t>
+  </si>
+  <si>
+    <t>X20H4</t>
+  </si>
+  <si>
+    <t>DI 750 III Multi Speed DLX</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>80 HP</t>
+  </si>
+  <si>
+    <t>61 HP</t>
+  </si>
+  <si>
+    <t>75 HP</t>
+  </si>
+  <si>
+    <t>35 HP</t>
+  </si>
+  <si>
     <t>45 HP</t>
   </si>
   <si>
     <t>55 HP</t>
   </si>
   <si>
-    <t>40 HP</t>
-  </si>
-  <si>
-    <t>15 HP</t>
-  </si>
-  <si>
-    <t>46 HP</t>
-  </si>
-  <si>
-    <t>38 HP</t>
-  </si>
-  <si>
-    <t>34 HP</t>
-  </si>
-  <si>
-    <t>9.46 HP</t>
+    <t>90 HP</t>
+  </si>
+  <si>
+    <t>20 HP</t>
+  </si>
+  <si>
+    <t>69 HP</t>
+  </si>
+  <si>
+    <t>52 HP</t>
+  </si>
+  <si>
+    <t>63.8 HP</t>
+  </si>
+  <si>
+    <t>29.8 HP</t>
+  </si>
+  <si>
+    <t>39 HP</t>
+  </si>
+  <si>
+    <t>46.8 HP</t>
+  </si>
+  <si>
+    <t>65 HP</t>
+  </si>
+  <si>
+    <t>77 HP</t>
+  </si>
+  <si>
+    <t>47.3 HP</t>
+  </si>
+  <si>
+    <t>12 Forward + 12 Reverse</t>
+  </si>
+  <si>
+    <t>8 Forward + 2 Reverse</t>
+  </si>
+  <si>
+    <t>8 Forward + 8 Reverse</t>
+  </si>
+  <si>
+    <t>8 Forward + 2 Reverse/ 12 Forward + 3 Reverse</t>
+  </si>
+  <si>
+    <t>6 Forward + 2 Reverse</t>
+  </si>
+  <si>
+    <t>Multi Disc Oil Immersed Brakes</t>
+  </si>
+  <si>
+    <t>Oil Immersed Disc Brakes</t>
+  </si>
+  <si>
+    <t>Oil Immersed Multiple discs</t>
+  </si>
+  <si>
+    <t>MDSSTM technology with FRICPADTM</t>
+  </si>
+  <si>
+    <t>Hydraulic operated oil Immerse sealed disc Brakes</t>
+  </si>
+  <si>
+    <t>Oil Immersed Brake</t>
+  </si>
+  <si>
+    <t>Multi Disc Oil Immersed</t>
+  </si>
+  <si>
+    <t>Oil immersed drum brakes</t>
+  </si>
+  <si>
+    <t>Oil Immersed Brakes</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>8 Forward + 2 Reverse</t>
-  </si>
-  <si>
-    <t>8 Forward + 4 Reverse</t>
-  </si>
-  <si>
-    <t>6 Forward + 2 Reverse</t>
-  </si>
-  <si>
-    <t>Multi Plate Oil Immersed Brakes</t>
-  </si>
-  <si>
-    <t>Wet Brakes</t>
-  </si>
-  <si>
-    <t>Oil immersed Disc Brakes</t>
-  </si>
-  <si>
-    <t>Oil Immersed Brakes</t>
-  </si>
-  <si>
-    <t>6000 hr / 6 Year</t>
-  </si>
-  <si>
-    <t>6000 Hours / 6 Year</t>
-  </si>
-  <si>
-    <t>5000 Hours/ 5 Year</t>
-  </si>
-  <si>
-    <t>5000 Hours / 5 Year</t>
+    <t>2000 Hour / 2 Year</t>
+  </si>
+  <si>
+    <t>2100 Hours Or 2 Year</t>
+  </si>
+  <si>
+    <t>2000 Hours Or 2 Year</t>
+  </si>
+  <si>
+    <t>From: 12.75-13.50 Lac*
+EMI starts from ₹27,299*</t>
   </si>
   <si>
     <t>Check Price</t>
   </si>
   <si>
-    <t>From: 6.40-6.75 Lac*
-EMI starts from ₹13,703*</t>
-  </si>
-  <si>
-    <t>Autonxt X45H2 is an amazing and powerful tractor with a super attractive design. Autonxt X45H2 is an effective tractor launched by the Autonxt Tractor. The X45H2 comes with all the advanced technology for effective work on the farm. Here we show all the features, quality, and fair price of the Autonxt X45H2 Tractor. Check down below.
-Autonxt X45H2 Engine Capacity
-The tractor comes with 45 HP. Autonxt X45H2 engine capacity provides efficient mileage on the field. The Autonxt X45H2 is one of the powerful tractors and offers good mileage. The X45H2 Tractor has a capability to provide high performance on the field. Autonxt X45H2 comes with super power which is fuel efficient.
-Autonxt X45H2 Quality Features
-It has gearboxes.
-Along with this, Autonxt X45H2 has a superb kmph forward speed.
-Autonxt X45H2 Steering type is smooth Smart electrically controlled power steering.
+    <t>From: 21.20-23.10 Lac*
+EMI starts from ₹45,391*</t>
+  </si>
+  <si>
+    <t>Preet 8049 is an amazing and powerful tractor with a super attractive design. Preet 8049 is an effective tractor launched by the Preet Tractor. The 8049 comes with all the advanced technology for effective work on the farm. Here we show all the features, quality, and fair price of the Preet 8049 Tractor. Check down below.
+Preet 8049 Engine Capacity
+The tractor comes with 80 HP. Preet 8049 engine capacity provides efficient mileage on the field. The Preet 8049 is one of the powerful tractors and offers good mileage. The 8049 Tractor has a capability to provide high performance on the field. Preet 8049 comes with super power which is fuel efficient.
+Preet 8049 Quality Features
+It has 12 Forward + 12 Reverse gearboxes.
+Along with this, Preet 8049 has a superb kmph forward speed.
+Preet 8049 manufactured with Multi Disc Oil Immersed Brakes.
+Preet 8049 Steering type is smooth Power Steering.
 It offers a litre large fuel tank capacity for long hours on farms.
-Autonxt X45H2 has 1800 Kg strong Lifting capacity.
-This X45H2 tractor consists of multiple tread pattern tyres for the effective work
-Autonxt X45H2 Tractor Price
-Autonxt X45H2 Price in India is fair price for buyers. The X45H2 price is set according to the budget of Indian farmers. It is the main reason Autonxt X45H2 became popular among Indian farmers with its launch. For other inquiries related to Autonxt X45H2, stay tuned with TractorJunction. You can find videos related to the X45H2 tractor from which you can get more information about Autonxt X45H2. Here you can also get an updated Autonxt X45H2 Tractor on road price 2024.
-Why Tractor Junction for Autonxt X45H2?
-You can get Autonxt X45H2 at Tractor Junction with exclusive features. If you have any further queries related to Autonxt X45H2, you can contact us. Our customer executive will help you out and tell you all about Autonxt X45H2. So, visit Tractor Junction and get Autonxt X45H2 with price and features. You can also compare Autonxt X45H2 with other tractors.
-Get latest Autonxt X45H2 on road price Jan 19, 2024.</t>
-  </si>
-  <si>
-    <t>Swaraj 855 FE 4WD is an amazing and powerful tractor with a super attractive design. Swaraj 855 FE 4WD is an effective tractor launched by the Swaraj Tractor. The 855 FE 4WD comes with all the advanced technology for effective work on the farm. Here we show all the features, quality, and fair price of the Swaraj 855 FE 4WD Tractor. Check down below.
-Swaraj 855 FE 4WD Engine Capacity
-The tractor comes with 55 HP. Swaraj 855 FE 4WD engine capacity provides efficient mileage on the field. The Swaraj 855 FE 4WD is one of the powerful tractors and offers good mileage. The 855 FE 4WD Tractor has a capability to provide high performance on the field. Swaraj 855 FE 4WD comes with super power which is fuel efficient.
-Swaraj 855 FE 4WD Quality Features
-It has 8 Forward + 2 Reverse gearboxes.
-Along with this, Swaraj 855 FE 4WD has a superb kmph forward speed.
-Swaraj 855 FE 4WD manufactured with Multi Plate Oil Immersed Brakes.
-Swaraj 855 FE 4WD Steering type is smooth Power Steering.
+Preet 8049 has 2400 /3000 (Optional) strong Lifting capacity.
+This 8049 tractor consists of multiple tread pattern tyres for the effective work. The size of the tyres are 7.50 X 16 front tyres and 16.9 X 30 reverse tyres.
+Preet 8049 Tractor Price
+Preet 8049 Price in India is Rs. 12.75-13.50 Lakh*. The 8049 price is set according to the budget of Indian farmers. It is the main reason Preet 8049 became popular among Indian farmers with its launch. For other inquiries related to Preet 8049, stay tuned with TractorJunction. You can find videos related to the 8049 tractor from which you can get more information about Preet 8049. Here you can also get an updated Preet 8049 Tractor on road price 2024.
+Why Tractor Junction for Preet 8049?
+You can get Preet 8049 at Tractor Junction with exclusive features. If you have any further queries related to Preet 8049, you can contact us. Our customer executive will help you out and tell you all about Preet 8049. So, visit Tractor Junction and get Preet 8049 with price and features. You can also compare Preet 8049 with other tractors.
+Get latest Preet 8049 on road price Jan 20, 2024.</t>
+  </si>
+  <si>
+    <t>ACE DI 6500 is a trusted 2WD tractor to provide top-quality crop production. It is a 61 HP tractor, which delivers remarkable power for both commercial and farming activities. The price of ACE DI 6500 starts from Rs. 7.35 lakh in India. It gives 2200 engine-rated RPM and has 12 forward + 12 reverse gears. Moreover, this model is ideal to offer superb mileage and can perform well in toughest terrains.    
+Producing an impressive 52 PTO HP, it will help to operate various farming tasks. Also, it has powerful hydraulics with 2200 Kg lifting capacity and large fuel capacity to work for longer durations. 
+Therefore, this 2 Wheel Drive tractor is a perfect choice for your farm to boost production. If you want to perform numerous farming operations like ploughing, planting and harvesting in one go, select this tractor to achieve such a goal.
+ACE DI 6500 Engine Capacity
+ACE DI 6500 has a 65 HP engine with 4 cylinders and a 4088 CC displacement capacity. Its engine produces 2200 engine-rated RPM. Apart from this, there is a natural aspirated cooling system to prevent overheating, resulting in longer working hours. A dry air filter with a clogging sensor helps to protect the engine from dust. 
+ACE DI 6500 Technical Specifications
+ACE DI 6500 comes with numerous latest features and it is a recommended choice among farmers. This is due to the following specifications:
+The ACE DI 6500 is equipped with a dual clutch to smoothly change gears, with minimum noise.
+The maximum and minimum forward speeds of this model are 30.85 kmph and 1.50 kmph, respectively.
+It has oil immersed disc brakes to provide high grip and safety for the operator.
+Comes with 12 forward + 12 reverse gears for various farming operations. 
+The model has a power steering, which offers effortless handling and proper vehicle control.
+ACE DI 6500 is fitted with mechanically actuated, hand-operated Power Take Off for convenient farming. 
+The tractor’s torque is 255 @ 1450 NM to deliver top-quality performance on every terrain.
+ACE DI 6500 Tractor Additional Features
+ACE DI 6500 - 61 HP 2 Wheel Drive model is a great farming machine and it will significantly help to generate higher income. Following are the eye-catching features of this tractor:
+There is an effective power steering for higher control and safety.
+It is compatible with a range of machinery such as tools, bumper, ballast weight, top link, canopy, hitch and drawbar.
+Its unique blue-coloured body design is attractive and built according to aerodynamics.
+ACE DI 6500 has different metres and indicators for convenience while operating it.
+ACE DI 6500 Tractor Price
+The starting price of ACE DI 6500 tractor is Rs 7.35 Lakh* (Ex.Showroom price) in India. The price of this model is according to the Indian farmers' and their budget. The on-road price of the ACE DI 6500 tractor varies from its showroom price due to additional state taxes and RTO charges. To get an updated price list, enquire about it with our customer support. 
+Tractor Junction gives you all latest updates and information about the ACE DI 6500 tractor model in India. Stay tuned to get updated prices and any other information.
+Get latest ACE DI 6500 on road price Jan 20, 2024.</t>
+  </si>
+  <si>
+    <t>Indo Farm Tractor manufactures a wide range of high-performance 2WD tractors and Indo Farm 4175 DI is one of them. Here we show all the essential features, engine specifications, and fair price of Indo Farm 4175 DI 2WD Tractor. Check down below.
+What is Indo Farm 4175 DI 2WD Engine Capacity?
+Indo Farm 4175 DI 2WD comes with a 75 engine Hp and a 63.8 power take-off Hp. Such high PTO Hp makes this tractor highly compatible with other agricultural machinery like rotavator, cultivator, etc. The robust engine generates 2200 engine rated RPM and provides efficient mileage on the field.
+What makes Indo Farm 4175 DI best for you?
+Indo Farm 4175 DI 2WD comes with the option of a single and dual-clutch with synchromesh technology.
+The gearbox contains 12 forward and 12 reverse gears that makes gear shifting convenient for the operator.
+Along with this, it runs on an exceptional 1.6-32.7 KMPH forward speed and1.34-27.64 KMPH reverse speed.
+The tractor is manufactured with Oil Immersed Multiple disc brakes that reduce the risk of slippage and maintains traction.
+The steering type is smooth Hydrostatic Power Steering with a single drop arm column.
+It is fitted with a 60-litre large fuel-efficient tank capacity to last for long hours on farms.
+Indo Farm 4175 DI has 2600 KG strong pulling capacity with A.D.D.C linkage points.
+The water cooling system regulates engine temperatures and the dry air filter enhances the life of the tractor.
+As the name suggests, this is a two-wheel-drive tractor.
+It is quite suitable for demanding farm activities like loading, dozing, etc.
+This tractor weighs 2650 KG and has a wheelbase of 3900 MM. The front wheels measure 7.50x16 and the rear wheels measure 16.9x30.
+The 12/12 speed carraro transmission system boosts the overall performance of the tractor.
+Indo Farm 4175 DI is a durable tractor, filled with all essential tractor features to make farming easier for the Indian farmers.
+What is Indo Farm 4175 DI 2WD Tractor Price?
+Indo Farm 4175 DI 2WD Price in India is reasonable at Rs. 11.70-12.10 Lakh* (Ex-Showroom Price). The prices variations may occur due to external factors like location, demand, etc. Visit our website to get the best deal on this tractor.
+What is Indo Farm 4175 DI 2WD on-road price 2024 ?
+For other enquiries related to Indo Farm 4175 DI 2WD, stay tuned with TractorJunction. You can watch videos related to the Indo Farm 4175 DI 2WD tractor to get additional information about the tractor. Check our website to get an updated Indo Farm 4175 DI 2WD Tractor on-road price 2024.
+Get latest Indo Farm 4175 DI 2 WD on road price Jan 20, 2024.</t>
+  </si>
+  <si>
+    <t>Welcome Buyers, this post is about Massey Ferguson 1134 DI Tractor, this tractor is manufactured by TAFE Tractor Manufacturer. This post contains all the information about the tractor like Massey Ferguson 1134 DI full specification, price, hp, pto hp, Engine and many more.
+Massey Ferguson 1134 DI MAHA SHAKTI Tractor Engine Capacity
+Massey Ferguson 1134 DI new model hp is a 35 HP Tractor. Massey Ferguson 1134 DI engine capacity is 2270 cc and has 3 Cylinders generating 2000 engine rated RPM this combination is very nice for the buyers.
+How is Massey Ferguson 1134 DI MAHA SHAKTI best for you?
+Massey Ferguson 1134 DI new model tractor has a dual dry type clutch, which provides smooth and easy functioning. Massey Ferguson 1134 DI steering type is Manual Steering from that tractor get easy to control and fast response. The tractor has Dry Disc Brakes which provide high grip and low slippage. It has a hydraulic lifting capacity of 1100 kg and Massey Ferguson 1134 DI mileage is economical in every field. These options create it sensible for implements like cultivator, rotavator, plough, planter and others.
+Massey Ferguson 1134 DI MAHA SHAKTI price 
+Massey Ferguson 1134 DI on road price in India is Rs. 5.45-5.72 Lakh*(Ex-Showroom Price). Massey Ferguson 1134 DI price is very affordable. 
+I hope you get all the information about the Massey Ferguson 1134 DI MAHA SHAKTI price and Massey Ferguson 1134 DI price in Punjab. And for further details like Massey Ferguson 1134 DI price, specifications, warranty, and mileage stay tuned with TractorJunction. 
+Get latest Massey Ferguson 1134 DI on road price Jan 20, 2024.</t>
+  </si>
+  <si>
+    <t>Welcome Buyers, this post is about Preet 4549 CR - 4WD Tractor. Preet Agro Industries, an Indian Tractor manufacturing brand manufactures this tractor model. The Tractor is easy to operate and can handle all your farming operations with ease. Preet 4549 CR - 4WD offers high performance and an economic mileage on the field. The rest you can see from the information given below. This post contains reliable data such as Preet Tractor Price, Preet Tractor Specifications, and much more.
+Preet 4549 CR - 4WD Engine Specification :
+Preet 4549 CR - 4WD is a 4WD - 45 HP Tractor, made for medium usages in the Indian Fields. The Tractor has a 2892 CC engine capacity which generates 2200 engine rated RPM. It also has 38.3 PTO Hp which is adequate for powering other implements. The 4 cylinders engine provides better functioning to the Tractor. The specifically designed engine offers high power to the farmers at an economical price. It also comes with advanced Water Cooled Technology and Dry Type Air Cleaner.
+Preet 4549 CR - 4WD Quality Features :
+Preet 4549 CR consists of various tools and features which is crucial in agricultural operations. The valuable features of this Preet Tractor model are displayed below.
+Preet 4549 CR - 4WD comes with heavy-duty, Dry Type Dual Clutch.
+It has 8 Forward + 8 Reverse gearboxes.
+Along with this, Preet 4549 CR - 4WD has a Superb Forward Speed.
+Preet 4549 CR - 4WD manufactured with Multi Disc Oil Immersed Brakes.
+Preet 4549 CR - 4WD steering type is smooth Power steering Steering.
+It offers 67-litre large fuel tank capacity for long hours on farms.
+And Preet 4549 CR - 4WD has 1200 Kg strong pulling capacity.
+Preet 4549 CR - 4WD Tractor Price :
+Preet 4549 CR - WD tractor current on-road price in India is Rs 7.50 Lakh* - Rs 8.00 Lakh* (Ex-Showroom Price). Preet 4549 is a perfect tractor in this price range. 
+Considering the price, this is one of the best tractor models with a fantastic price to performance ratio. You can surely opt for this Tractor as per the individual needs. The tractor price depends upon several components such as RTO registration, insurance amount, road tax, and a lot more. The cost of Preet 4549 CR - 4WD is different in distinct regions of the Nation.
+Call us now for further information about Preet 4549 CR - 4WD Mileage and Warranty. 
+Tractorjunction.com creates the above post. We bring the latest updates and information about the tractors that can help you choose. Here, you can find videos related to the Preet 4549 CR - 4WD tractor. 
+You also get an updated Preet 4549 CR - 4WD Tractor on-road price 2024.
+Get latest Preet 4549 CR - 4WD on road price Jan 20, 2024.</t>
+  </si>
+  <si>
+    <t>Same Deutz Fahr Agrolux 55 is an amazing and powerful tractor with a super attractive design. Same Deutz Fahr Agrolux 55 is an effective tractor launched by the Same Deutz Fahr Tractor. The Agrolux 55 comes with all the advanced technology for effective work on the farm. Here we show all the features, quality, and fair price of the Same Deutz Fahr Agrolux 55 Tractor. Check down below.
+Same Deutz Fahr Agrolux 55 Engine Capacity
+The tractor comes with 55 HP. Same Deutz Fahr Agrolux 55 engine capacity provides efficient mileage on the field. The Same Deutz Fahr Agrolux 55 is one of the powerful tractors and offers good mileage. The Agrolux 55 Tractor has a capability to provide high performance on the field. Same Deutz Fahr Agrolux 55 comes with super power which is fuel efficient.
+Same Deutz Fahr Agrolux 55 Quality Features
+It has 8 Forward + 2 Reverse/ 12 Forward + 3 Reverse gearboxes.
+Along with this, Same Deutz Fahr Agrolux 55 has a superb kmph forward speed.
+Same Deutz Fahr Agrolux 55 manufactured with Hydraulic operated oil Immerse sealed disc Brakes.
+Same Deutz Fahr Agrolux 55 Steering type is smooth Mechanical/Power Steering (optional).
 It offers a litre large fuel tank capacity for long hours on farms.
-Swaraj 855 FE 4WD has 1700 Kg strong Lifting capacity.
-This 855 FE 4WD tractor consists of multiple tread pattern tyres for the effective work. The size of the tyres are 9.50 X 20 front tyres and 14.9 X 28 reverse tyres.
-Swaraj 855 FE 4WD Tractor Price
-Swaraj 855 FE 4WD Price in India is Rs. 9.30 - 9.89 Lakh*(Ex-Showroom Price). The 855 FE 4WD price is set according to the budget of Indian farmers. It is the main reason Swaraj 855 FE 4WD became popular among Indian farmers with its launch. For other inquiries related to Swaraj 855 FE 4WD, stay tuned with TractorJunction. You can find videos related to the 855 FE 4WD tractor from which you can get more information about Swaraj 855 FE 4WD. Here you can also get an updated Swaraj 855 FE 4WD Tractor on road price 2024.
-Why Tractor Junction for Swaraj 855 FE 4WD?
-You can get Swaraj 855 FE 4WD at Tractor Junction with exclusive features. If you have any further queries related to Swaraj 855 FE 4WD, you can contact us. Our customer executive will help you out and tell you all about Swaraj 855 FE 4WD. So, visit Tractor Junction and get Swaraj 855 FE 4WD with price and features. You can also compare Swaraj 855 FE 4WD with other tractors.
-Get latest Swaraj 855 FE 4WD on road price Jan 19, 2024.</t>
-  </si>
-  <si>
-    <t>Welcome Buyers, this post is about Swaraj 742 XT Tractor, Swaraj Tractor Manufacturer manufactures this tractor. This post contains all the information about the tractor Swaraj 742 XT price, features, hp, PTO hp, engine, images, reviews and many more. 
-Swaraj 742 XT Tractor Engine Capacity
-Swaraj 742 XT is one of the best tractor models of Swaraj as it is loaded with all the innovative features. It offers a powerful engine and high work excellency to complete all the tasks efficiently. Swaraj 742 XT hp is a 45 HP tractor with 3-cylinders, 3307 CC engine, generating 2000 RPM. 742 XT Swaraj engine is exceptional and powerful, which supports during unfavourable weather and soil conditions. Swaraj tractor model offers the best combination of cleanliness and coolness, which is the main reason for its long working life. This combination is very nice for the buyers. The powerful engine of the tractor provides the highest engine displacement and torque in the field. 
-How is Swaraj 742 XT Best For You?
-Swaraj 742 XT tractor is loaded with advanced and modern features, making the job easy and increasing its life. With features like multi-speed forward and reverse PTO, DCV and adjustable front axle, it stands apart from the rest. Swaraj tractor 742 XT has a clutch, which provides smooth and easy functioning. The 742 XT tractor steering is awesome for that tractor get easy to control and fast response. The tractor has wonderful brakes which provide high grip and low slippage. 
-Swaraj 742 XT mileage is economical in every field and has a wheel drive option. These options create it sensible for implements like cultivator, rotavator, plough, planter and others. The tractor offers a comfortable driving seat which provides support in long hours applications. It delivers sustainable crop solutions in the Indian farming land, resulting in high production and yield. 
-Swaraj 742 XT Price In India
-Swaraj 742 XT price is affordable and cheaper for every Indian farmer. Swaraj 742 XT price is Rs. 6.40 - Rs. 6.75 Lakh*(Ex-Showroom Price), making it budget-friendly and cost-effective than other tractor models in this category. It offers high performance, high fuel efficiency, reliability, potent engine, and smooth functioning. 
-We hope you get all the detailed information about swaraj tractors 742 XT price, specification, engine capacity etc. For more information, stay tuned with TractorJunction.com, and for swaraj 742 XT video, you can subscribe to our Youtube channel. 
-The above post is created by experts who work to provide you with everything that might help you choose your next tractor. Call Us Now to know more about this tractor, visit the website to compare it with other tractors and choose the best.
-Get latest Swaraj 742 XT on road price Jan 19, 2024.</t>
-  </si>
-  <si>
-    <t>John Deere 5105 is a highly efficient tractor model which used to perform rough farming operations. This tractor is loaded with highly efficient sustainable farming solutions, making it a guarantee of high production. John Deere 5105 tractor is a reliable and most powerful tractor that enhances productivity on the farms. You can get every feature in the John Deere 5105 tractor, for which you are seeking. John Deere 5105 is effective, productive and lives up to your expectancy. 5105 John Deere tractor is perfect for customers who are very certain of the design and robust body of a tractor. It comes with an exclusive design, amazing robust body and a point of attraction. Check out all essential information like John Deere Tractor 5105 Price, features, engine Hp, mileage, and much more.
-John Deere 5105 Engine Capacity
-John Deere 5105 is a 40 Hp tractor supported with 3 cylinders that generate 2100 engine rated RPM. The high 34 power take-off Hp makes the tractor highly professional. This combination makes the tractor a superb option for Indian Farmers. The engine of the 5105 John Deere tractor is effective and strong, which handles rugged fields. Also, the powerful engine makes the tractor suitable for commercial purposes. 
-The tractor model is loaded with Coolant Cooled and Dry type Dual Elements, keeping the engine cool and clean. This facility enhances the working ability of an engine and tractor. John Deere 5105 2wd tractor does not need any frequent gear changes. Along with this, it comes with additional lubrication for critical components of the engine. 
-John Deere 5105 Tractor - Perfect Example Of Excellency 
-For farming purposes, tractor John Deere 5105 has no competition because of its highly class features. This tractor model is fully loaded with efficient features which help in the farming field. Due to its advanced features, the tractor has high demand among the farmers. John Deere 5105 offers the option of a single and dual-clutch for trouble-free operations. The Oil-Immersed Disc Brakes ensure proper grip and reduce slippage on the fields. 
-The tractor has power steering for the smooth functioning of the tractor. John Deere 40 hp tractor is loaded with all the effective and efficient specifications that provide long hours on field. The lifting capacity of the tractor is 1600 KG with automatic depth and draft control linkage points. The tractor is a four-wheel-drive tractor, available in both 2WD and 4WD variants. Along with these, John Deere 5105 tractor price in India is economical for all farmers. 
-John Deere 5105 Tractor - Standard Features 
-Additionally, it is equipped with highly standard features which provide work excellency in the farming field. As a result, farmers can produce high yields and earn good money. The John Deere 5105 offers advanced features such as PTO NSS, underhood exhaust muffler, water separator, front &amp; rear oil axle with metal face seal for farmers’ satisfaction. It has the rollover protection structure (ROPS) with a deluxe seat and seat belt that is the best combination for modern farmers. The gearbox consists of 8 forward and 4 reverse gears to maintain smooth operability. It runs on a power-packed forward speed of 3.25-35.51 KMPH and a reverse speed of 4.27-15.45 KMPH. This ensures the tractor runs at multiple speeds as required. John Deere 5105 price in India is budget-friendly for farmers. 
-John Deere 5105 fits a coolant cooling system and a dry-type dual-element air filter that monitors the engine temperatures at all times. The PTO runs on six spline shafts that run on 540 engine rated RPM. This tractor offers a 60-litre fuel tank to keep the tractor in the field for a long time. John Deere 5105 tractor is manufactured with a unique design and style which attracts Indian farmers. If we talk about John Deere 5105 price then it is more convenient than other tractors. John Deere 5105 2wd price makes it more demanding among the Indian farmers. 
-John Deere 5105 Tractor Price 2024
-A farmer or customer never compromises with their farm's productivity. They would like to do anything which gives better productivity for their farms. Farmers mostly prefer an efficient tractor at a low price, John Deere 5105 is one of them and provides a relatable satisfaction. John Deere 5105, a cheap price tractor, under many features. Any farmer can easily buy John Deere 5105 without any compromises and increase its farm's productivity.  Check John Deere 5105 2wd tractor price in India at Tractor Junction. 
-The price of John Deere 5105 Tractor is reasonable at Rs. 6,55,000 to 7,10,000 Lakh (Ex-Showroom Price). This is one of the best tractors in such an affordable price range. The tractor costs vary due to various factors which is why it is best to check our website to get an accurate on-road price. Get updated John Deere 40 hp tractor price here at Tractor Junction. Here, you can also get second-hand John Deere 5105 for sale. 
-Get latest John Deere 5105 on road price Jan 19, 2024.</t>
-  </si>
-  <si>
-    <t>In this section, we will take a look at some of the important features, specifications and price of Sonalika Tiger Electric Tractor.
-Sonalika Tiger Electric Tractor Engine
-Sonalika Tiger Electric is powered by a state-of-the-art 11 HP, IP67 compliant 25.5 kw naturally cooling compact battery. 
-Features of Sonalika Tiger Electric Tractor
-The high quality battery can be easily charged at a regular home charging point in 10 hours. The company also offers a fast charging option with which the Tiger Electric can be charged in just 4 hours.
-It is environment friendly and economical as compared to diesel and petrol engines as the running costs are decreased by around 75%.
-The energy-efficient, German design etrac motor offers high power density and peak torque with a top speed of 24.93 kmph and a battery backup of 8 hours.
-The tractor is built on the proven tractor platform of Sonalika, which makes it farmer-friendly and easy to use while ensuring optimal performance at all times.
-Sonalika Tiger Electric tractor comes with a 5000 hours/5 year warranty.
-Tiger Electric assures better comfort for farmers as no heat is transferred from the engine.
-The tractor offers zero product downtime and reduced maintenance costs as the number of parts installed are less.
-Sonalika Tiger Electric Tractor Price in India
-Sonalika Tiger Electric tractor is available for booking at an introductory price of approximately INR 5.91-6.22 (Ex-Showroom Price).
-For more information on the latest on-road prices, information and videos related to Sonalika Tiger Electric Tractor, stay tuned on Tractorjunction.
-Get latest Sonalika Tiger Electric on road price Jan 19, 2024.</t>
-  </si>
-  <si>
-    <t>3308 CC</t>
-  </si>
-  <si>
-    <t>3307 CC</t>
-  </si>
-  <si>
-    <t>2900 CC</t>
+Same Deutz Fahr Agrolux 55 has 2000 Kg strong Lifting capacity.
+This Agrolux 55 tractor consists of multiple tread pattern tyres for the effective work. The size of the tyres are 7.50 x 16 / 12.4 x 20 front tyres and 16.9 x 28 reverse tyres.
+Same Deutz Fahr Agrolux 55 Tractor Price
+Same Deutz Fahr Agrolux 55 Price in India is Rs.10.32-12.77 Lakh*(Ex-Showroom Price). The Agrolux 55 price is set according to the budget of Indian farmers. It is the main reason Same Deutz Fahr Agrolux 55 became popular among Indian farmers with its launch. For other inquiries related to Same Deutz Fahr Agrolux 55, stay tuned with TractorJunction. You can find videos related to the Agrolux 55 tractor from which you can get more information about Same Deutz Fahr Agrolux 55. Here you can also get an updated Same Deutz Fahr Agrolux 55 Tractor on road price 2024.
+Why Tractor Junction for Same Deutz Fahr Agrolux 55?
+You can get Same Deutz Fahr Agrolux 55 at Tractor Junction with exclusive features. If you have any further queries related to Same Deutz Fahr Agrolux 55, you can contact us. Our customer executive will help you out and tell you all about Same Deutz Fahr Agrolux 55. So, visit Tractor Junction and get Same Deutz Fahr Agrolux 55 with price and features. You can also compare Same Deutz Fahr Agrolux 55 with other tractors.
+Get latest Same Deutz Fahr Agrolux 55 on road price Jan 20, 2024.</t>
+  </si>
+  <si>
+    <t>Sonalika Worldtrac 75 RX 4WD is an amazing and powerful tractor with a super attractive design. Sonalika Worldtrac 75 RX 4WD is an effective tractor launched by the Sonalika Tractor. The Worldtrac 75 RX 4WD comes with all the advanced technology for effective work on the farm. Here we show all the features, quality, and fair price of the Sonalika Worldtrac 75 RX 4WD Tractor. Check down below.
+Sonalika Worldtrac 75 RX 4WD Engine Capacity
+The tractor comes with 75 HP. Sonalika Worldtrac 75 RX 4WD engine capacity provides efficient mileage on the field. The Sonalika Worldtrac 75 RX 4WD is one of the powerful tractors and offers good mileage. The Worldtrac 75 RX 4WD Tractor has a capability to provide high performance on the field. Sonalika Worldtrac 75 RX 4WD comes with super power which is fuel efficient.
+Sonalika Worldtrac 75 RX 4WD Quality Features
+It has 12 Forward + 12 Reverse gearboxes.
+Along with this, Sonalika Worldtrac 75 RX 4WD has a superb kmph forward speed.
+Sonalika Worldtrac 75 RX 4WD manufactured with Oil Immersed Brake.
+Sonalika Worldtrac 75 RX 4WD Steering type is smooth Power Steering.
+It offers a litre large fuel tank capacity for long hours on farms.
+Sonalika Worldtrac 75 RX 4WD has 2500 kg strong Lifting capacity.
+This Worldtrac 75 RX 4WD tractor consists of multiple tread pattern tyres for the effective work
+Sonalika Worldtrac 75 RX 4WD Tractor Price
+Sonalika Worldtrac 75 RX 4WD Price in India is fair price for buyers. The Worldtrac 75 RX 4WD price is set according to the budget of Indian farmers. It is the main reason Sonalika Worldtrac 75 RX 4WD became popular among Indian farmers with its launch. For other inquiries related to Sonalika Worldtrac 75 RX 4WD, stay tuned with TractorJunction. You can find videos related to the Worldtrac 75 RX 4WD tractor from which you can get more information about Sonalika Worldtrac 75 RX 4WD. Here you can also get an updated Sonalika Worldtrac 75 RX 4WD Tractor on road price 2024.
+Why Tractor Junction for Sonalika Worldtrac 75 RX 4WD?
+You can get Sonalika Worldtrac 75 RX 4WD at Tractor Junction with exclusive features. If you have any further queries related to Sonalika Worldtrac 75 RX 4WD, you can contact us. Our customer executive will help you out and tell you all about Sonalika Worldtrac 75 RX 4WD. So, visit Tractor Junction and get Sonalika Worldtrac 75 RX 4WD with price and features. You can also compare Sonalika Worldtrac 75 RX 4WD with other tractors.
+Get latest Sonalika Worldtrac 75 RX 4WD on road price Jan 20, 2024.</t>
+  </si>
+  <si>
+    <t>Preet Tractor is among the leading Indian tractor manufacturing brands that produce superb agriculture machinery. Preet 9049 AC 4WD is one of the most sought-after tractors in Indian agriculture equipped with technologically advanced features. Here we show all essential features, engine capacity, the fair price of Preet 9049 AC - 4WD Tractor, and much more. Check down below.
+What is Preet 9049 AC - 4WD Engine Capacity?
+Preet 9049 AC - 4WD comes with a 90 engine Hp and an excellent 76.5 power take-off Hp that makes this tractor suitable for demanding farm activities like loading, dozing, etc. and heavy-duty tractor implements like rotavator, cultivator, etc. The robust 4087 CC engine provides efficient mileage on the field and a torque backup of up to 15 to 20%. This powerful combination makes this tractor a perfect pick for the farmers.
+What are the quality features of Preet 9049 AC - 4WD?
+Preet 9049 AC - 4WD comes with a Heavy Duty Dry Dual-clutch with the synchromesh transmission system.
+The gearbox contains 12 Forward + 12 Reverse gears for easy gear shifting in challenging situations.
+Along with this, it offers an amazing 1.65-33.87 KMPH forward speed and 1.38-28.41 KMPH reverse speed.
+Preet 9049 AC - 4WD is manufactured with Multi-Disc Oil-Immersed brakes for better traction and reduced slippage.
+The steering type is smooth Power steering and the PTO type is Dual Speed Live PTO with 6 splines.
+It is equipped with a 67-litre large fuel tank capacity to last for long hours on farms.
+And Preet 9049 AC - 4WD has 2400 KG strong pulling capacity with three 2 lever A.D.DC linkage points.
+This four-wheel-drive tractor weighs 3525 KG and has a wheelbase of 2280 MM. The front tyres measure 12.4x24 and the rear tyres measure 18.4x30.
+The efficient water cooling system keeps the engine temperatures monitored at all times.
+It has a dry with clogging sensor air filter that enhances the overall life of the engine.
+Preet 9049 AC-4WD is loaded with four cylinders that generate 2200 engine rated RPM.
+This tractor takes proper care of the operator’s comfort with unique features like deluxe seats, fully air-conditioned cabin, tool box with bottle holder, etc.
+Preet 9049 AC-4WD is a power-packed tractor up-to-date with all technological advancements that Indian farmers require these days.
+What is Preet 9049 AC - 4WD Tractor Price?
+Preet 9049 AC - 4WD Price in India is reasonable at Rs. 21.20 - 23.10 Lakh*. The tractor prices vary from state to state due to various factors like availability, demand, etc. It is best to check our website to get a fair deal on this tractor.
+What is Preet 9049 AC - 4WD On-Road Price 2024?
+For other enquiries related to Preet 9049 AC - 4WD, stay tuned with TractorJunction. You can also watch videos related to the Preet 9049 AC - 4WD tractor to get additional information about the tractor. Visit our website to get an updated Preet 9049 AC - 4WD Tractor on-road price 2024.
+Get latest Preet 9049 AC - 4WD on road price Jan 20, 2024.</t>
+  </si>
+  <si>
+    <t>Autonxt X20H4 is an amazing and powerful tractor with a super attractive design. Autonxt X20H4 is an effective tractor launched by the Autonxt Tractor. The X20H4 comes with all the advanced technology for effective work on the farm. Here we show all the features, quality, and fair price of the Autonxt X20H4 Tractor. Check down below.
+Autonxt X20H4 Engine Capacity
+The tractor comes with 20 HP. Autonxt X20H4 engine capacity provides efficient mileage on the field. The Autonxt X20H4 is one of the powerful tractors and offers good mileage. The X20H4 Tractor has a capability to provide high performance on the field. Autonxt X20H4 comes with super power which is fuel efficient.
+Autonxt X20H4 Quality Features
+It has 6 Forward + 2 Reverse gearboxes.
+Along with this, Autonxt X20H4 has a superb kmph forward speed.
+Autonxt X20H4 manufactured with Oil immersed drum brakes.
+Autonxt X20H4 Steering type is smooth Hydraulic Power Steering.
+It offers a litre large fuel tank capacity for long hours on farms.
+Autonxt X20H4 has 750 Kg strong Lifting capacity.
+This X20H4 tractor consists of multiple tread pattern tyres for the effective work
+Autonxt X20H4 Tractor Price
+Autonxt X20H4 Price in India is fair price for buyers. The X20H4 price is set according to the budget of Indian farmers. It is the main reason Autonxt X20H4 became popular among Indian farmers with its launch. For other inquiries related to Autonxt X20H4, stay tuned with TractorJunction. You can find videos related to the X20H4 tractor from which you can get more information about Autonxt X20H4. Here you can also get an updated Autonxt X20H4 Tractor on road price 2024.
+Why Tractor Junction for Autonxt X20H4?
+You can get Autonxt X20H4 at Tractor Junction with exclusive features. If you have any further queries related to Autonxt X20H4, you can contact us. Our customer executive will help you out and tell you all about Autonxt X20H4. So, visit Tractor Junction and get Autonxt X20H4 with price and features. You can also compare Autonxt X20H4 with other tractors.
+Get latest Autonxt X20H4 on road price Jan 20, 2024.</t>
+  </si>
+  <si>
+    <t>Sonalika DI 750 III Multi Speed DLX is an amazing and powerful tractor with a super attractive design. Sonalika DI 750 III Multi Speed DLX is an effective tractor launched by the Sonalika Tractor. The DI 750 III Multi Speed DLX comes with all the advanced technology for effective work on the farm. Here we show all the features, quality, and fair price of the Sonalika DI 750 III Multi Speed DLX Tractor. Check down below.
+Sonalika DI 750 III Multi Speed DLX Engine Capacity
+The tractor comes with 55 HP. Sonalika DI 750 III Multi Speed DLX engine capacity provides efficient mileage on the field. The Sonalika DI 750 III Multi Speed DLX is one of the powerful tractors and offers good mileage. The DI 750 III Multi Speed DLX Tractor has a capability to provide high performance on the field. Sonalika DI 750 III Multi Speed DLX comes with super power which is fuel efficient.
+Sonalika DI 750 III Multi Speed DLX Quality Features
+It has 12 Forward + 12 Reverse gearboxes.
+Along with this, Sonalika DI 750 III Multi Speed DLX has a superb kmph forward speed.
+Sonalika DI 750 III Multi Speed DLX manufactured with Oil Immersed Brakes.
+Sonalika DI 750 III Multi Speed DLX Steering type is smooth power.
+It offers a litre large fuel tank capacity for long hours on farms.
+Sonalika DI 750 III Multi Speed DLX has 2000 strong Lifting capacity.
+This DI 750 III Multi Speed DLX tractor consists of multiple tread pattern tyres for the effective work. The size of the tyres are 7.5 X 16 front tyres and 14.9 x 28 reverse tyres.
+Sonalika DI 750 III Multi Speed DLX Tractor Price
+Sonalika DI 750 III Multi Speed DLX Price in India is Rs. 8.22-8.74 Lakh*. The DI 750 III Multi Speed DLX price is set according to the budget of Indian farmers. It is the main reason Sonalika DI 750 III Multi Speed DLX became popular among Indian farmers with its launch. For other inquiries related to Sonalika DI 750 III Multi Speed DLX, stay tuned with TractorJunction. You can find videos related to the DI 750 III Multi Speed DLX tractor from which you can get more information about Sonalika DI 750 III Multi Speed DLX. Here you can also get an updated Sonalika DI 750 III Multi Speed DLX Tractor on road price 2024.
+Why Tractor Junction for Sonalika DI 750 III Multi Speed DLX?
+You can get Sonalika DI 750 III Multi Speed DLX at Tractor Junction with exclusive features. If you have any further queries related to Sonalika DI 750 III Multi Speed DLX, you can contact us. Our customer executive will help you out and tell you all about Sonalika DI 750 III Multi Speed DLX. So, visit Tractor Junction and get Sonalika DI 750 III Multi Speed DLX with price and features. You can also compare Sonalika DI 750 III Multi Speed DLX with other tractors.
+Get latest Sonalika DI 750 III Multi Speed DLX on road price Jan 20, 2024.</t>
+  </si>
+  <si>
+    <t>4087 CC</t>
+  </si>
+  <si>
+    <t>4088 CC</t>
+  </si>
+  <si>
+    <t>2270 CC</t>
+  </si>
+  <si>
+    <t>2892 CC</t>
+  </si>
+  <si>
+    <t>3000 CC</t>
+  </si>
+  <si>
+    <t>3707 CC</t>
+  </si>
+  <si>
+    <t>2200 RPM</t>
   </si>
   <si>
     <t>2000 RPM</t>
   </si>
   <si>
-    <t>2100 RPM</t>
-  </si>
-  <si>
     <t>Water Cooled</t>
   </si>
   <si>
-    <t>Coolant Cooled</t>
-  </si>
-  <si>
-    <t>3 Stage Wet Air Cleaner</t>
-  </si>
-  <si>
-    <t>Dry type Dual Element</t>
+    <t>Natural Aspirated</t>
+  </si>
+  <si>
+    <t>4 Storke, Water Cooled direct injection diesel engine with turbo charger &amp; inter cooler</t>
+  </si>
+  <si>
+    <t>Dry Type</t>
+  </si>
+  <si>
+    <t>Dry Air Cleaner with Clogging Sensor</t>
+  </si>
+  <si>
+    <t>Dry Air Cleaner</t>
+  </si>
+  <si>
+    <t>Oil Bath With Pre Cleaner</t>
+  </si>
+  <si>
+    <t>Dry type</t>
+  </si>
+  <si>
+    <t>Dry type with air cleaner with precleaner &amp; clogging system</t>
+  </si>
+  <si>
+    <t>Dry With Clogging Sensor</t>
+  </si>
+  <si>
+    <t>Oil Bath /DryType with Pre Cleaner</t>
+  </si>
+  <si>
+    <t>Multicylinder Inline (BOSCH)</t>
   </si>
   <si>
     <t>Inline</t>
   </si>
   <si>
-    <t>205 NM</t>
-  </si>
-  <si>
-    <t>Combination Of Constant Mesh &amp; Sliding</t>
-  </si>
-  <si>
-    <t>Combination of Constant Mesh &amp; Sliding Mesh</t>
-  </si>
-  <si>
-    <t>Collarshift</t>
-  </si>
-  <si>
-    <t>Independent clutch</t>
-  </si>
-  <si>
-    <t>Single / Dual clutch(Optional)</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>3.1 – 30.9 kmph</t>
-  </si>
-  <si>
-    <t>3.25 - 35.51 kmph</t>
-  </si>
-  <si>
-    <t>24.93 kmph</t>
-  </si>
-  <si>
-    <t>2.6 - 12.9 kmph</t>
-  </si>
-  <si>
-    <t>4.27 - 15.45 kmph</t>
-  </si>
-  <si>
-    <t>Smart electrically controlled power steering</t>
+    <t>Independent FIP for each cylinder</t>
+  </si>
+  <si>
+    <t>255 NM</t>
+  </si>
+  <si>
+    <t>Synchromesh</t>
+  </si>
+  <si>
+    <t>Sliding Mesh</t>
+  </si>
+  <si>
+    <t>Combination of constant mesh and sliding mesh</t>
+  </si>
+  <si>
+    <t>Fully Constant Mesh, Synchromesh Gear box, Helicar box With Forc</t>
+  </si>
+  <si>
+    <t>Constant Mesh with Side Shifter</t>
+  </si>
+  <si>
+    <t>Heavy Duty, Dry Type Dual Clutch</t>
+  </si>
+  <si>
+    <t>Dual Clutch</t>
+  </si>
+  <si>
+    <t>Single / Dual (Optional)</t>
+  </si>
+  <si>
+    <t>Dual clutch</t>
+  </si>
+  <si>
+    <t>Single / Double Clutch with independent PTO clutch lever</t>
+  </si>
+  <si>
+    <t>Double Clutch</t>
+  </si>
+  <si>
+    <t>Heavy Duty Dry Dual clutch</t>
+  </si>
+  <si>
+    <t>12 V 100 AH</t>
+  </si>
+  <si>
+    <t>12 V 88 Ah</t>
+  </si>
+  <si>
+    <t>12 V 88 AH</t>
+  </si>
+  <si>
+    <t>12 V 75 AH</t>
+  </si>
+  <si>
+    <t>12V, 88 Ah</t>
+  </si>
+  <si>
+    <t>12 V 42 Amp</t>
+  </si>
+  <si>
+    <t>12 V 65 Amp</t>
+  </si>
+  <si>
+    <t>Self Starter Motor &amp; Alternator</t>
+  </si>
+  <si>
+    <t>12 V 36 A</t>
+  </si>
+  <si>
+    <t>12V, 42 A</t>
+  </si>
+  <si>
+    <t>1.60 - 32.70 kmph</t>
+  </si>
+  <si>
+    <t>1.5 - 30.85 kmph</t>
+  </si>
+  <si>
+    <t>29.20 kmph</t>
+  </si>
+  <si>
+    <t>2.88 - 32.62 kmph</t>
+  </si>
+  <si>
+    <t>1.65 - 33.87 kmph</t>
+  </si>
+  <si>
+    <t>1.34 - 27.43 kmph</t>
+  </si>
+  <si>
+    <t>1.34 - 27.64 kmph</t>
+  </si>
+  <si>
+    <t>12.01 kmph</t>
+  </si>
+  <si>
+    <t>2.87 - 32.55 kmph</t>
+  </si>
+  <si>
+    <t>1.38 - 28.41 kmph</t>
   </si>
   <si>
     <t>Power Steering</t>
   </si>
   <si>
-    <t>Mechanical Steering</t>
-  </si>
-  <si>
-    <t>Multi Speed and Revers PTO</t>
-  </si>
-  <si>
-    <t>6 Spline</t>
-  </si>
-  <si>
-    <t>Independent , 6 Spline</t>
+    <t>Hydrostatic Power Steering</t>
+  </si>
+  <si>
+    <t>Manual Steering</t>
+  </si>
+  <si>
+    <t>Power steering</t>
+  </si>
+  <si>
+    <t>Mechanical/Power Steering (optional)</t>
+  </si>
+  <si>
+    <t>Hydraulic Power Steering</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Single Drop Arm</t>
+  </si>
+  <si>
+    <t>Dual Speed Live PTO, 6 Splines</t>
+  </si>
+  <si>
+    <t>Reverse PTO</t>
+  </si>
+  <si>
+    <t>Multi Speed PTO</t>
+  </si>
+  <si>
+    <t>Live, Six-splined shaft</t>
+  </si>
+  <si>
+    <t>Dual PTO with 540/750</t>
+  </si>
+  <si>
+    <t>540 &amp; 1000</t>
+  </si>
+  <si>
+    <t>540 / 540 E</t>
+  </si>
+  <si>
+    <t>540 / 1000</t>
+  </si>
+  <si>
+    <t>540 RPM @ 1500 ERPM</t>
   </si>
   <si>
     <t>540</t>
   </si>
   <si>
-    <t>540 / 1000</t>
-  </si>
-  <si>
-    <t>540 @ 2100 RPM</t>
-  </si>
-  <si>
     <t>540/750</t>
   </si>
   <si>
-    <t>2440 KG</t>
-  </si>
-  <si>
-    <t>2020 KG</t>
-  </si>
-  <si>
-    <t>1810 KG</t>
-  </si>
-  <si>
-    <t>820 KG</t>
-  </si>
-  <si>
-    <t>2165 MM</t>
-  </si>
-  <si>
-    <t>2108 MM</t>
-  </si>
-  <si>
-    <t>1970 MM</t>
-  </si>
-  <si>
-    <t>1420 MM</t>
-  </si>
-  <si>
-    <t>3550 MM</t>
-  </si>
-  <si>
-    <t>3522 MM</t>
-  </si>
-  <si>
-    <t>3410 MM</t>
-  </si>
-  <si>
-    <t>1805 MM</t>
-  </si>
-  <si>
-    <t>1826 MM</t>
+    <t>540 , 1000</t>
+  </si>
+  <si>
+    <t>2200 KG</t>
+  </si>
+  <si>
+    <t>2600 KG</t>
+  </si>
+  <si>
+    <t>2650 KG</t>
+  </si>
+  <si>
+    <t>1720 KG</t>
+  </si>
+  <si>
+    <t>1875 KG</t>
+  </si>
+  <si>
+    <t>3525 KG</t>
+  </si>
+  <si>
+    <t>1150 KG</t>
+  </si>
+  <si>
+    <t>2135 MM</t>
+  </si>
+  <si>
+    <t>1935 MM</t>
+  </si>
+  <si>
+    <t>2280 MM</t>
+  </si>
+  <si>
+    <t>3830 MM</t>
+  </si>
+  <si>
+    <t>3990 MM</t>
+  </si>
+  <si>
+    <t>3900 MM</t>
+  </si>
+  <si>
+    <t>3320 MM</t>
+  </si>
+  <si>
+    <t>3560 MM</t>
+  </si>
+  <si>
+    <t>1870 MM</t>
+  </si>
+  <si>
+    <t>1940 MM</t>
+  </si>
+  <si>
+    <t>1925 MM</t>
+  </si>
+  <si>
+    <t>1675 MM</t>
+  </si>
+  <si>
+    <t>1710 MM</t>
   </si>
   <si>
     <t>400 MM</t>
   </si>
   <si>
-    <t>1800 Kg</t>
-  </si>
-  <si>
-    <t>1700 Kg</t>
-  </si>
-  <si>
-    <t>1600 kg</t>
-  </si>
-  <si>
-    <t>500 Kg</t>
+    <t>410 MM</t>
+  </si>
+  <si>
+    <t>335 MM</t>
+  </si>
+  <si>
+    <t>415 MM</t>
+  </si>
+  <si>
+    <t>280 MM</t>
+  </si>
+  <si>
+    <t>4000 MM</t>
+  </si>
+  <si>
+    <t>3.5 MM</t>
+  </si>
+  <si>
+    <t>2400 /3000 (Optional)</t>
+  </si>
+  <si>
+    <t>2200 Kg</t>
+  </si>
+  <si>
+    <t>2600 Kg</t>
+  </si>
+  <si>
+    <t>1100 kg</t>
+  </si>
+  <si>
+    <t>1200 Kg</t>
+  </si>
+  <si>
+    <t>2000 Kg</t>
+  </si>
+  <si>
+    <t>2500 kg</t>
+  </si>
+  <si>
+    <t>2400 Kg</t>
+  </si>
+  <si>
+    <t>750 Kg</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>ADDC,Cat- II</t>
+  </si>
+  <si>
+    <t>ADDC CAT II</t>
   </si>
   <si>
     <t>ADDC</t>
   </si>
   <si>
-    <t>Automatic Depth and Draft Control</t>
-  </si>
-  <si>
-    <t>2 Lever, PCDC</t>
+    <t>Automatic Draft &amp;. Position Control</t>
+  </si>
+  <si>
+    <t>2 Lever, Automatic depth &amp; draft Control</t>
+  </si>
+  <si>
+    <t>Live, ADDC &amp; 4 Top link Position</t>
   </si>
   <si>
     <t>2 WD</t>
@@ -359,34 +745,64 @@
     <t>4 WD</t>
   </si>
   <si>
-    <t>9.50 X 20</t>
-  </si>
-  <si>
-    <t>6.0 x 16</t>
+    <t>7.50 X 16</t>
+  </si>
+  <si>
+    <t>7.50 X 16 / 9.5 X 24</t>
+  </si>
+  <si>
+    <t>7.50 x 16</t>
   </si>
   <si>
     <t>6.00 x 16</t>
   </si>
   <si>
-    <t>5.0 x 12</t>
-  </si>
-  <si>
-    <t>14.9 X 28</t>
-  </si>
-  <si>
-    <t>13.6 x 28 / 14.9 x 28</t>
+    <t>8.00 X 18</t>
+  </si>
+  <si>
+    <t>12.4 X 24</t>
+  </si>
+  <si>
+    <t>7.5 X 16</t>
+  </si>
+  <si>
+    <t>16.9 X 30</t>
+  </si>
+  <si>
+    <t>16.9 X 28</t>
+  </si>
+  <si>
+    <t>16.9 x 30</t>
+  </si>
+  <si>
+    <t>12.4 x 28</t>
   </si>
   <si>
     <t>13.6 x 28</t>
   </si>
   <si>
-    <t>8.00 x 18</t>
-  </si>
-  <si>
-    <t>Ballast Weight, Canopy, Canopy Holder, Draw Bar, Tow Hook, Wagon Hitch</t>
-  </si>
-  <si>
-    <t>PTO NSS, Underhood Exhaust Muffler, Water Separator, Front &amp; Rear oil axle with metal face seal</t>
+    <t>16.9 x 28</t>
+  </si>
+  <si>
+    <t>18.4 X 30</t>
+  </si>
+  <si>
+    <t>14.9 x 28</t>
+  </si>
+  <si>
+    <t>Tools, Bumper, Hook, Hitch, Canopy, TopLink</t>
+  </si>
+  <si>
+    <t>Tool, Toplink, Canopy, Hook, Bumper, Drawbar</t>
+  </si>
+  <si>
+    <t>High fuel efficiency, 12/12 Speed Carraro Transmission</t>
+  </si>
+  <si>
+    <t>Rear flat face with hitch rails &amp; Oil pipe kit, Transport lock, Digital cluster</t>
+  </si>
+  <si>
+    <t>Carraro Synchronisation Transmission, Combination of Synchro Mesh + Constant Mesh, Side Gear, Projector Lights With LED (Optional), Dana Front Axle, Power Steering, Electronic Meter, Planetary Oil Immersed Brakes, Extra Leg Space, Bonnet Lock with Key Live PTO 540, Mobile Charger, Aero Dynamic Bonnet.</t>
   </si>
   <si>
     <t>Launched</t>
@@ -871,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP6"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,130 +1295,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -1010,52 +1426,103 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" t="s">
+        <v>107</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="X2" t="s">
-        <v>59</v>
+        <v>122</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>157</v>
       </c>
       <c r="AH2" t="s">
-        <v>83</v>
+        <v>169</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>179</v>
       </c>
       <c r="AJ2" t="s">
-        <v>90</v>
+        <v>185</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>194</v>
       </c>
       <c r="AP2" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -1063,364 +1530,839 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="S3" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="T3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V3" t="s">
+        <v>113</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="Z3" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="AA3" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="AB3" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="AC3" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="AD3" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AE3" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AF3" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="AH3" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="AI3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="AJ3" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="AK3" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="AL3" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="AO3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AP3" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="Q4" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="S4" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="T4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" t="s">
+        <v>109</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="X4" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="Z4" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="AA4" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="AB4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="AD4" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="AE4" t="s">
-        <v>81</v>
+        <v>159</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>167</v>
       </c>
       <c r="AH4" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="AI4" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="AJ4" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="AK4" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="AL4" t="s">
-        <v>97</v>
+        <v>196</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>204</v>
       </c>
       <c r="AO4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" t="s">
+        <v>98</v>
       </c>
       <c r="S5" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="T5" t="s">
+        <v>105</v>
+      </c>
+      <c r="U5" t="s">
+        <v>110</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>114</v>
+      </c>
+      <c r="W5" t="s">
+        <v>119</v>
       </c>
       <c r="X5" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="Z5" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="AA5" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="AB5" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="AC5" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AD5" t="s">
-        <v>79</v>
+        <v>155</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>164</v>
       </c>
       <c r="AH5" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="AI5" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="AJ5" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="AK5" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="AL5" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="AM5" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="AN5" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="AO5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="AP5" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" t="s">
+        <v>106</v>
+      </c>
+      <c r="U6" t="s">
+        <v>111</v>
+      </c>
+      <c r="V6" t="s">
+        <v>115</v>
+      </c>
+      <c r="W6" t="s">
+        <v>120</v>
+      </c>
+      <c r="X6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" t="s">
+        <v>99</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" t="s">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="X6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" t="s">
         <v>90</v>
       </c>
-      <c r="AK6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>102</v>
+      <c r="R9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s">
+        <v>103</v>
+      </c>
+      <c r="U9" t="s">
+        <v>107</v>
+      </c>
+      <c r="V9" t="s">
+        <v>116</v>
+      </c>
+      <c r="W9" t="s">
+        <v>121</v>
+      </c>
+      <c r="X9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
